--- a/5 改版后自动化网页提交/5.6/新电元信息采集/data/detail.xlsx
+++ b/5 改版后自动化网页提交/5.6/新电元信息采集/data/detail.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E59E2E5B-D054-422D-9751-40B5FFB1D2C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSFET" sheetId="1" r:id="rId1"/>
     <sheet name="双向晶闸管" sheetId="2" r:id="rId2"/>
     <sheet name="单向晶闸管" sheetId="3" r:id="rId3"/>
     <sheet name="桥式整流二极管" sheetId="4" r:id="rId4"/>
+    <sheet name="桥式提交打乱顺序" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSFET!$A$1:$R$121</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="766">
   <si>
     <t>型号</t>
   </si>
@@ -2340,13 +2342,20 @@
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/S2WB(A)60%20Datasheet.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2359,6 +2368,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2382,11 +2398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2666,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9406,7 +9423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10775,7 +10792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11845,14 +11862,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="67.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -18351,4 +18371,6526 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3489F1-AFB9-4CD5-BFBA-84A247CF65CD}">
+  <dimension ref="A1:R116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="67.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K1" t="s">
+        <v>644</v>
+      </c>
+      <c r="L1" t="s">
+        <v>645</v>
+      </c>
+      <c r="M1" t="s">
+        <v>646</v>
+      </c>
+      <c r="N1" t="s">
+        <v>727</v>
+      </c>
+      <c r="O1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>1.05</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>800</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O2" s="1">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>550</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>1.05</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>800</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O3" s="1">
+        <v>150</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>560</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>62</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>800</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O4" s="1">
+        <v>150</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>472</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>1.05</v>
+      </c>
+      <c r="K5">
+        <v>1.5</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>800</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O5" s="1">
+        <v>150</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>472</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>800</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O6" s="1">
+        <v>150</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>472</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>150</v>
+      </c>
+      <c r="J7">
+        <v>0.95</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>800</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O7" s="1">
+        <v>150</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>492</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <v>0.95</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>600</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O8" s="1">
+        <v>150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>492</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>1.05</v>
+      </c>
+      <c r="K9">
+        <v>7.5</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>600</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O9" s="1">
+        <v>150</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>503</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>1.05</v>
+      </c>
+      <c r="K10">
+        <v>7.5</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>800</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O10" s="1">
+        <v>150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>503</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K11">
+        <v>7.5</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>600</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O11" s="1">
+        <v>150</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>509</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12">
+        <v>7.5</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>800</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O12" s="1">
+        <v>150</v>
+      </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>509</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>600</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O13" s="1">
+        <v>150</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>509</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F14" t="s">
+        <v>510</v>
+      </c>
+      <c r="G14">
+        <v>800</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>240</v>
+      </c>
+      <c r="J14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>800</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O14" s="1">
+        <v>150</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>509</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" t="s">
+        <v>636</v>
+      </c>
+      <c r="G15">
+        <v>800</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>800</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="O15" s="1">
+        <v>150</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>635</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F16" t="s">
+        <v>609</v>
+      </c>
+      <c r="G16">
+        <v>600</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>1.05</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>600</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O16" s="1">
+        <v>150</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>608</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F17" t="s">
+        <v>609</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
+        <v>1.05</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>800</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O17" s="1">
+        <v>150</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>608</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F18" t="s">
+        <v>609</v>
+      </c>
+      <c r="G18">
+        <v>600</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>170</v>
+      </c>
+      <c r="J18">
+        <v>1.05</v>
+      </c>
+      <c r="K18">
+        <v>3.5</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>600</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O18" s="1">
+        <v>150</v>
+      </c>
+      <c r="P18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>608</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F19" t="s">
+        <v>609</v>
+      </c>
+      <c r="G19">
+        <v>800</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>1.05</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>800</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O19" s="1">
+        <v>150</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>608</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F20" t="s">
+        <v>543</v>
+      </c>
+      <c r="G20">
+        <v>600</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>1.05</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>600</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O20" s="1">
+        <v>150</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>542</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>544</v>
+      </c>
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F21" t="s">
+        <v>543</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>1.05</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>800</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O21" s="1">
+        <v>150</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>542</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F22" t="s">
+        <v>556</v>
+      </c>
+      <c r="G22">
+        <v>600</v>
+      </c>
+      <c r="H22">
+        <v>0.8</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>1.05</v>
+      </c>
+      <c r="K22">
+        <v>0.4</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>600</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O22" s="1">
+        <v>150</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>555</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>537</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F23" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23">
+        <v>800</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>1.05</v>
+      </c>
+      <c r="K23">
+        <v>0.4</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>800</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O23" s="1">
+        <v>150</v>
+      </c>
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>555</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+      <c r="C24" s="1">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F24" t="s">
+        <v>638</v>
+      </c>
+      <c r="G24">
+        <v>1200</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>450</v>
+      </c>
+      <c r="J24">
+        <v>1.17</v>
+      </c>
+      <c r="K24">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>1200</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="O24" s="1">
+        <v>150</v>
+      </c>
+      <c r="P24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>635</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>617</v>
+      </c>
+      <c r="B25">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F25" t="s">
+        <v>609</v>
+      </c>
+      <c r="G25">
+        <v>1600</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>350</v>
+      </c>
+      <c r="J25">
+        <v>1.05</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>1600</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O25" s="1">
+        <v>150</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>608</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>594</v>
+      </c>
+      <c r="B26">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F26" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26">
+        <v>600</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>1.05</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>600</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O26" s="1">
+        <v>150</v>
+      </c>
+      <c r="P26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>595</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F27" t="s">
+        <v>596</v>
+      </c>
+      <c r="G27">
+        <v>800</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>500</v>
+      </c>
+      <c r="J27">
+        <v>1.05</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>800</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O27" s="1">
+        <v>150</v>
+      </c>
+      <c r="P27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>595</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F28" t="s">
+        <v>485</v>
+      </c>
+      <c r="G28">
+        <v>600</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>130</v>
+      </c>
+      <c r="J28">
+        <v>1.05</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>600</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O28" s="1">
+        <v>150</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>484</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F29" t="s">
+        <v>485</v>
+      </c>
+      <c r="G29">
+        <v>800</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>130</v>
+      </c>
+      <c r="J29">
+        <v>1.05</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>800</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O29" s="1">
+        <v>150</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>484</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F30" t="s">
+        <v>493</v>
+      </c>
+      <c r="G30">
+        <v>600</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>120</v>
+      </c>
+      <c r="J30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>600</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O30" s="1">
+        <v>150</v>
+      </c>
+      <c r="P30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>492</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" t="s">
+        <v>493</v>
+      </c>
+      <c r="G31">
+        <v>800</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>120</v>
+      </c>
+      <c r="J31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>800</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O31" s="1">
+        <v>150</v>
+      </c>
+      <c r="P31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>492</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B32">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F32" t="s">
+        <v>576</v>
+      </c>
+      <c r="G32">
+        <v>600</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>200</v>
+      </c>
+      <c r="J32">
+        <v>1.05</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>600</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O32" s="1">
+        <v>150</v>
+      </c>
+      <c r="P32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>575</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>622</v>
+      </c>
+      <c r="B33">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F33" t="s">
+        <v>533</v>
+      </c>
+      <c r="G33">
+        <v>800</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>600</v>
+      </c>
+      <c r="J33">
+        <v>1.05</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>800</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O33" s="1">
+        <v>150</v>
+      </c>
+      <c r="P33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>623</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>598</v>
+      </c>
+      <c r="B34">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F34" t="s">
+        <v>596</v>
+      </c>
+      <c r="G34">
+        <v>600</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>170</v>
+      </c>
+      <c r="J34">
+        <v>1.05</v>
+      </c>
+      <c r="K34">
+        <v>3.5</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>600</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O34" s="1">
+        <v>150</v>
+      </c>
+      <c r="P34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>599</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>600</v>
+      </c>
+      <c r="B35">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F35" t="s">
+        <v>596</v>
+      </c>
+      <c r="G35">
+        <v>800</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>150</v>
+      </c>
+      <c r="J35">
+        <v>1.05</v>
+      </c>
+      <c r="K35">
+        <v>3.5</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>800</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O35" s="1">
+        <v>150</v>
+      </c>
+      <c r="P35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>599</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F36" t="s">
+        <v>510</v>
+      </c>
+      <c r="G36">
+        <v>600</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>350</v>
+      </c>
+      <c r="J36">
+        <v>1.05</v>
+      </c>
+      <c r="K36">
+        <v>12.5</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>600</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O36" s="1">
+        <v>150</v>
+      </c>
+      <c r="P36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>509</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>527</v>
+      </c>
+      <c r="B37">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F37" t="s">
+        <v>510</v>
+      </c>
+      <c r="G37">
+        <v>800</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>350</v>
+      </c>
+      <c r="J37">
+        <v>1.05</v>
+      </c>
+      <c r="K37">
+        <v>12.5</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>800</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O37" s="1">
+        <v>150</v>
+      </c>
+      <c r="P37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>509</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>511</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F38" t="s">
+        <v>510</v>
+      </c>
+      <c r="G38">
+        <v>600</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>170</v>
+      </c>
+      <c r="J38">
+        <v>1.05</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>600</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O38" s="1">
+        <v>150</v>
+      </c>
+      <c r="P38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>509</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>512</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F39" t="s">
+        <v>510</v>
+      </c>
+      <c r="G39">
+        <v>800</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>170</v>
+      </c>
+      <c r="J39">
+        <v>1.05</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>800</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O39" s="1">
+        <v>150</v>
+      </c>
+      <c r="P39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>509</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>481</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F40" t="s">
+        <v>480</v>
+      </c>
+      <c r="G40">
+        <v>600</v>
+      </c>
+      <c r="H40">
+        <v>1.5</v>
+      </c>
+      <c r="I40">
+        <v>80</v>
+      </c>
+      <c r="J40">
+        <v>1.05</v>
+      </c>
+      <c r="K40">
+        <v>0.75</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>600</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O40" s="1">
+        <v>150</v>
+      </c>
+      <c r="P40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>479</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F41" t="s">
+        <v>480</v>
+      </c>
+      <c r="G41">
+        <v>600</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>120</v>
+      </c>
+      <c r="J41">
+        <v>0.95</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>600</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O41" s="1">
+        <v>150</v>
+      </c>
+      <c r="P41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>479</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B42">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F42" t="s">
+        <v>533</v>
+      </c>
+      <c r="G42">
+        <v>1200</v>
+      </c>
+      <c r="H42">
+        <v>45</v>
+      </c>
+      <c r="I42">
+        <v>450</v>
+      </c>
+      <c r="J42">
+        <v>1.05</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>1200</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O42" s="1">
+        <v>150</v>
+      </c>
+      <c r="P42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>625</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>627</v>
+      </c>
+      <c r="B43">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1">
+        <v>58</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F43" t="s">
+        <v>596</v>
+      </c>
+      <c r="G43">
+        <v>1600</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>350</v>
+      </c>
+      <c r="J43">
+        <v>1.05</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43">
+        <v>1600</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="O43" s="1">
+        <v>150</v>
+      </c>
+      <c r="P43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>599</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>601</v>
+      </c>
+      <c r="B44">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F44" t="s">
+        <v>596</v>
+      </c>
+      <c r="G44">
+        <v>600</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>200</v>
+      </c>
+      <c r="J44">
+        <v>1.05</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>600</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O44" s="1">
+        <v>150</v>
+      </c>
+      <c r="P44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>599</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>602</v>
+      </c>
+      <c r="B45">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F45" t="s">
+        <v>596</v>
+      </c>
+      <c r="G45">
+        <v>800</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>200</v>
+      </c>
+      <c r="J45">
+        <v>1.05</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>800</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O45" s="1">
+        <v>150</v>
+      </c>
+      <c r="P45" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>599</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F46" t="s">
+        <v>558</v>
+      </c>
+      <c r="G46">
+        <v>600</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+      <c r="J46">
+        <v>1.05</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>600</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O46" s="1">
+        <v>150</v>
+      </c>
+      <c r="P46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>557</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>544</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47" s="1">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F47" t="s">
+        <v>558</v>
+      </c>
+      <c r="G47">
+        <v>800</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>1.05</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>800</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O47" s="1">
+        <v>150</v>
+      </c>
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>557</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>630</v>
+      </c>
+      <c r="B48">
+        <v>111</v>
+      </c>
+      <c r="C48" s="1">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F48" t="s">
+        <v>632</v>
+      </c>
+      <c r="G48">
+        <v>800</v>
+      </c>
+      <c r="H48">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>400</v>
+      </c>
+      <c r="J48">
+        <v>1.05</v>
+      </c>
+      <c r="K48">
+        <v>25</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>800</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="O48" s="1">
+        <v>150</v>
+      </c>
+      <c r="P48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>631</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>580</v>
+      </c>
+      <c r="B49">
+        <v>78</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F49" t="s">
+        <v>582</v>
+      </c>
+      <c r="G49">
+        <v>600</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>200</v>
+      </c>
+      <c r="J49">
+        <v>1.05</v>
+      </c>
+      <c r="K49">
+        <v>7.5</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>600</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O49" s="1">
+        <v>150</v>
+      </c>
+      <c r="P49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>581</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>611</v>
+      </c>
+      <c r="B50">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F50" t="s">
+        <v>609</v>
+      </c>
+      <c r="G50">
+        <v>600</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>200</v>
+      </c>
+      <c r="J50">
+        <v>1.05</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>600</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O50" s="1">
+        <v>150</v>
+      </c>
+      <c r="P50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>608</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>612</v>
+      </c>
+      <c r="B51">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F51" t="s">
+        <v>609</v>
+      </c>
+      <c r="G51">
+        <v>800</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>200</v>
+      </c>
+      <c r="J51">
+        <v>1.05</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>800</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O51" s="1">
+        <v>150</v>
+      </c>
+      <c r="P51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>608</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>476</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F52" t="s">
+        <v>473</v>
+      </c>
+      <c r="G52">
+        <v>800</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>135</v>
+      </c>
+      <c r="J52">
+        <v>1.05</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>800</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O52" s="1">
+        <v>150</v>
+      </c>
+      <c r="P52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>472</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>489</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F53" t="s">
+        <v>485</v>
+      </c>
+      <c r="G53">
+        <v>600</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>150</v>
+      </c>
+      <c r="J53">
+        <v>1.05</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <v>600</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O53" s="1">
+        <v>150</v>
+      </c>
+      <c r="P53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>484</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>529</v>
+      </c>
+      <c r="B54">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F54" t="s">
+        <v>510</v>
+      </c>
+      <c r="G54">
+        <v>600</v>
+      </c>
+      <c r="H54">
+        <v>25</v>
+      </c>
+      <c r="I54">
+        <v>350</v>
+      </c>
+      <c r="J54">
+        <v>1.05</v>
+      </c>
+      <c r="K54">
+        <v>12.5</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>600</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O54" s="1">
+        <v>150</v>
+      </c>
+      <c r="P54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>509</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>568</v>
+      </c>
+      <c r="B55">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F55" t="s">
+        <v>570</v>
+      </c>
+      <c r="G55">
+        <v>600</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>80</v>
+      </c>
+      <c r="J55">
+        <v>1.05</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>600</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" s="1">
+        <v>150</v>
+      </c>
+      <c r="P55" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>569</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>586</v>
+      </c>
+      <c r="B56">
+        <v>80</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43</v>
+      </c>
+      <c r="D56">
+        <v>33</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F56" t="s">
+        <v>588</v>
+      </c>
+      <c r="G56">
+        <v>600</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>500</v>
+      </c>
+      <c r="J56">
+        <v>1.05</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>600</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O56" s="1">
+        <v>150</v>
+      </c>
+      <c r="P56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>587</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43</v>
+      </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F57" t="s">
+        <v>588</v>
+      </c>
+      <c r="G57">
+        <v>800</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>500</v>
+      </c>
+      <c r="J57">
+        <v>1.05</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>800</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O57" s="1">
+        <v>150</v>
+      </c>
+      <c r="P57" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>587</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>626</v>
+      </c>
+      <c r="B58">
+        <v>108</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F58" t="s">
+        <v>533</v>
+      </c>
+      <c r="G58">
+        <v>1200</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>300</v>
+      </c>
+      <c r="J58">
+        <v>1.05</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>1200</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="O58" s="1">
+        <v>150</v>
+      </c>
+      <c r="P58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>625</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>547</v>
+      </c>
+      <c r="B59">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F59" t="s">
+        <v>543</v>
+      </c>
+      <c r="G59">
+        <v>600</v>
+      </c>
+      <c r="H59">
+        <v>1.5</v>
+      </c>
+      <c r="I59">
+        <v>60</v>
+      </c>
+      <c r="J59">
+        <v>1.05</v>
+      </c>
+      <c r="K59">
+        <v>0.75</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>600</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O59" s="1">
+        <v>150</v>
+      </c>
+      <c r="P59" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>546</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>548</v>
+      </c>
+      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F60" t="s">
+        <v>543</v>
+      </c>
+      <c r="G60">
+        <v>800</v>
+      </c>
+      <c r="H60">
+        <v>1.5</v>
+      </c>
+      <c r="I60">
+        <v>60</v>
+      </c>
+      <c r="J60">
+        <v>1.05</v>
+      </c>
+      <c r="K60">
+        <v>0.75</v>
+      </c>
+      <c r="L60">
+        <v>10</v>
+      </c>
+      <c r="M60">
+        <v>800</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O60" s="1">
+        <v>150</v>
+      </c>
+      <c r="P60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>546</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>520</v>
+      </c>
+      <c r="B61">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61">
+        <v>600</v>
+      </c>
+      <c r="H61">
+        <v>15</v>
+      </c>
+      <c r="I61">
+        <v>200</v>
+      </c>
+      <c r="J61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K61">
+        <v>7.5</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61">
+        <v>600</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O61" s="1">
+        <v>150</v>
+      </c>
+      <c r="P61" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>509</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>36</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F62" t="s">
+        <v>510</v>
+      </c>
+      <c r="G62">
+        <v>600</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>290</v>
+      </c>
+      <c r="J62">
+        <v>1.05</v>
+      </c>
+      <c r="K62">
+        <v>7.5</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>600</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O62" s="1">
+        <v>150</v>
+      </c>
+      <c r="P62" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>509</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>628</v>
+      </c>
+      <c r="B63">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1">
+        <v>59</v>
+      </c>
+      <c r="D63">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F63" t="s">
+        <v>533</v>
+      </c>
+      <c r="G63">
+        <v>1600</v>
+      </c>
+      <c r="H63">
+        <v>45</v>
+      </c>
+      <c r="I63">
+        <v>450</v>
+      </c>
+      <c r="J63">
+        <v>1.05</v>
+      </c>
+      <c r="K63">
+        <v>15</v>
+      </c>
+      <c r="L63">
+        <v>10</v>
+      </c>
+      <c r="M63">
+        <v>1600</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="O63" s="1">
+        <v>150</v>
+      </c>
+      <c r="P63" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>629</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64" s="1">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F64" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64">
+        <v>800</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>170</v>
+      </c>
+      <c r="J64">
+        <v>1.05</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>800</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O64" s="1">
+        <v>150</v>
+      </c>
+      <c r="P64" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>509</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>514</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65" s="1">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F65" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65">
+        <v>600</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>170</v>
+      </c>
+      <c r="J65">
+        <v>1.05</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>10</v>
+      </c>
+      <c r="M65">
+        <v>600</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" s="1">
+        <v>150</v>
+      </c>
+      <c r="P65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>509</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>528</v>
+      </c>
+      <c r="B66">
+        <v>45</v>
+      </c>
+      <c r="C66" s="1">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>39</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F66" t="s">
+        <v>510</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>25</v>
+      </c>
+      <c r="I66">
+        <v>350</v>
+      </c>
+      <c r="J66">
+        <v>1.05</v>
+      </c>
+      <c r="K66">
+        <v>12.5</v>
+      </c>
+      <c r="L66">
+        <v>10</v>
+      </c>
+      <c r="M66">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O66" s="1">
+        <v>150</v>
+      </c>
+      <c r="P66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>509</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>534</v>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+      <c r="C67" s="1">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67">
+        <v>600</v>
+      </c>
+      <c r="H67">
+        <v>0.8</v>
+      </c>
+      <c r="I67">
+        <v>30</v>
+      </c>
+      <c r="J67">
+        <v>1.05</v>
+      </c>
+      <c r="K67">
+        <v>0.4</v>
+      </c>
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>600</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O67" s="1">
+        <v>150</v>
+      </c>
+      <c r="P67" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>535</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>537</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68" s="1">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F68" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68">
+        <v>800</v>
+      </c>
+      <c r="H68">
+        <v>0.8</v>
+      </c>
+      <c r="I68">
+        <v>30</v>
+      </c>
+      <c r="J68">
+        <v>1.05</v>
+      </c>
+      <c r="K68">
+        <v>0.4</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <v>800</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O68" s="1">
+        <v>150</v>
+      </c>
+      <c r="P68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>535</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>549</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>41</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F69" t="s">
+        <v>561</v>
+      </c>
+      <c r="G69">
+        <v>600</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>30</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0.5</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69">
+        <v>600</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O69" s="1">
+        <v>150</v>
+      </c>
+      <c r="P69" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>560</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>552</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1">
+        <v>33</v>
+      </c>
+      <c r="D70">
+        <v>41</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70">
+        <v>800</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>30</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0.5</v>
+      </c>
+      <c r="L70">
+        <v>10</v>
+      </c>
+      <c r="M70">
+        <v>800</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O70" s="1">
+        <v>150</v>
+      </c>
+      <c r="P70" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>560</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>553</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>41</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F71" t="s">
+        <v>561</v>
+      </c>
+      <c r="G71">
+        <v>600</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0.5</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>600</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O71" s="1">
+        <v>150</v>
+      </c>
+      <c r="P71" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>560</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72" s="1">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>42</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F72" t="s">
+        <v>523</v>
+      </c>
+      <c r="G72">
+        <v>600</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>200</v>
+      </c>
+      <c r="J72">
+        <v>0.9</v>
+      </c>
+      <c r="K72">
+        <v>7.5</v>
+      </c>
+      <c r="L72">
+        <v>10</v>
+      </c>
+      <c r="M72">
+        <v>600</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O72" s="1">
+        <v>150</v>
+      </c>
+      <c r="P72" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>509</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>506</v>
+      </c>
+      <c r="B73">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>43</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F73" t="s">
+        <v>504</v>
+      </c>
+      <c r="G73">
+        <v>600</v>
+      </c>
+      <c r="H73">
+        <v>25</v>
+      </c>
+      <c r="I73">
+        <v>350</v>
+      </c>
+      <c r="J73">
+        <v>1.05</v>
+      </c>
+      <c r="K73">
+        <v>12.5</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+      <c r="M73">
+        <v>600</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O73" s="1">
+        <v>150</v>
+      </c>
+      <c r="P73" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>503</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>507</v>
+      </c>
+      <c r="B74">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>43</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F74" t="s">
+        <v>504</v>
+      </c>
+      <c r="G74">
+        <v>800</v>
+      </c>
+      <c r="H74">
+        <v>25</v>
+      </c>
+      <c r="I74">
+        <v>350</v>
+      </c>
+      <c r="J74">
+        <v>1.05</v>
+      </c>
+      <c r="K74">
+        <v>12.5</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <v>800</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O74" s="1">
+        <v>150</v>
+      </c>
+      <c r="P74" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>503</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>545</v>
+      </c>
+      <c r="B75">
+        <v>54</v>
+      </c>
+      <c r="C75" s="1">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>44</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F75" t="s">
+        <v>543</v>
+      </c>
+      <c r="G75">
+        <v>800</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+      <c r="J75">
+        <v>1.05</v>
+      </c>
+      <c r="K75">
+        <v>0.5</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="M75">
+        <v>800</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O75" s="1">
+        <v>150</v>
+      </c>
+      <c r="P75" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>546</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>547</v>
+      </c>
+      <c r="B76">
+        <v>66</v>
+      </c>
+      <c r="C76" s="1">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <v>45</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F76" t="s">
+        <v>558</v>
+      </c>
+      <c r="G76">
+        <v>600</v>
+      </c>
+      <c r="H76">
+        <v>1.5</v>
+      </c>
+      <c r="I76">
+        <v>60</v>
+      </c>
+      <c r="J76">
+        <v>1.05</v>
+      </c>
+      <c r="K76">
+        <v>0.75</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <v>600</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O76" s="1">
+        <v>150</v>
+      </c>
+      <c r="P76" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>559</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>548</v>
+      </c>
+      <c r="B77">
+        <v>67</v>
+      </c>
+      <c r="C77" s="1">
+        <v>32</v>
+      </c>
+      <c r="D77">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F77" t="s">
+        <v>558</v>
+      </c>
+      <c r="G77">
+        <v>800</v>
+      </c>
+      <c r="H77">
+        <v>1.5</v>
+      </c>
+      <c r="I77">
+        <v>60</v>
+      </c>
+      <c r="J77">
+        <v>1.05</v>
+      </c>
+      <c r="K77">
+        <v>0.75</v>
+      </c>
+      <c r="L77">
+        <v>10</v>
+      </c>
+      <c r="M77">
+        <v>800</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O77" s="1">
+        <v>150</v>
+      </c>
+      <c r="P77" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>559</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>562</v>
+      </c>
+      <c r="B78">
+        <v>72</v>
+      </c>
+      <c r="C78" s="1">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>46</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F78" t="s">
+        <v>564</v>
+      </c>
+      <c r="G78">
+        <v>600</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>40</v>
+      </c>
+      <c r="J78">
+        <v>1.05</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>10</v>
+      </c>
+      <c r="M78">
+        <v>600</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O78" s="1">
+        <v>150</v>
+      </c>
+      <c r="P78" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>563</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>605</v>
+      </c>
+      <c r="B79">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F79" t="s">
+        <v>596</v>
+      </c>
+      <c r="G79">
+        <v>600</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+      <c r="I79">
+        <v>400</v>
+      </c>
+      <c r="J79">
+        <v>1.05</v>
+      </c>
+      <c r="K79">
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>600</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O79" s="1">
+        <v>150</v>
+      </c>
+      <c r="P79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>599</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>606</v>
+      </c>
+      <c r="B80">
+        <v>93</v>
+      </c>
+      <c r="C80" s="1">
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>47</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F80" t="s">
+        <v>596</v>
+      </c>
+      <c r="G80">
+        <v>800</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80">
+        <v>400</v>
+      </c>
+      <c r="J80">
+        <v>1.05</v>
+      </c>
+      <c r="K80">
+        <v>10</v>
+      </c>
+      <c r="L80">
+        <v>10</v>
+      </c>
+      <c r="M80">
+        <v>800</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O80" s="1">
+        <v>150</v>
+      </c>
+      <c r="P80" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>599</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>620</v>
+      </c>
+      <c r="B81">
+        <v>104</v>
+      </c>
+      <c r="C81" s="1">
+        <v>55</v>
+      </c>
+      <c r="D81">
+        <v>48</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F81" t="s">
+        <v>533</v>
+      </c>
+      <c r="G81">
+        <v>800</v>
+      </c>
+      <c r="H81">
+        <v>45</v>
+      </c>
+      <c r="I81">
+        <v>400</v>
+      </c>
+      <c r="J81">
+        <v>1.05</v>
+      </c>
+      <c r="K81">
+        <v>15</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="M81">
+        <v>800</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O81" s="1">
+        <v>150</v>
+      </c>
+      <c r="P81" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>619</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>571</v>
+      </c>
+      <c r="B82">
+        <v>75</v>
+      </c>
+      <c r="C82" s="1">
+        <v>38</v>
+      </c>
+      <c r="D82">
+        <v>49</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F82" t="s">
+        <v>573</v>
+      </c>
+      <c r="G82">
+        <v>600</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>200</v>
+      </c>
+      <c r="J82">
+        <v>1.05</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="M82">
+        <v>600</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O82" s="1">
+        <v>150</v>
+      </c>
+      <c r="P82" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>572</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>545</v>
+      </c>
+      <c r="B83">
+        <v>65</v>
+      </c>
+      <c r="C83" s="1">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83">
+        <v>800</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>50</v>
+      </c>
+      <c r="J83">
+        <v>1.05</v>
+      </c>
+      <c r="K83">
+        <v>0.5</v>
+      </c>
+      <c r="L83">
+        <v>10</v>
+      </c>
+      <c r="M83">
+        <v>800</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O83" s="1">
+        <v>150</v>
+      </c>
+      <c r="P83" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>559</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>538</v>
+      </c>
+      <c r="B84">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1">
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <v>51</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F84" t="s">
+        <v>540</v>
+      </c>
+      <c r="G84">
+        <v>800</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>30</v>
+      </c>
+      <c r="J84">
+        <v>0.95</v>
+      </c>
+      <c r="K84">
+        <v>0.4</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <v>800</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O84" s="1">
+        <v>150</v>
+      </c>
+      <c r="P84" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>539</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>515</v>
+      </c>
+      <c r="B85">
+        <v>33</v>
+      </c>
+      <c r="C85" s="1">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>52</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F85" t="s">
+        <v>510</v>
+      </c>
+      <c r="G85">
+        <v>600</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>170</v>
+      </c>
+      <c r="J85">
+        <v>1.05</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>600</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O85" s="1">
+        <v>150</v>
+      </c>
+      <c r="P85" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>509</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>549</v>
+      </c>
+      <c r="B86">
+        <v>57</v>
+      </c>
+      <c r="C86" s="1">
+        <v>28</v>
+      </c>
+      <c r="D86">
+        <v>53</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F86" t="s">
+        <v>551</v>
+      </c>
+      <c r="G86">
+        <v>600</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>30</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0.5</v>
+      </c>
+      <c r="L86">
+        <v>10</v>
+      </c>
+      <c r="M86">
+        <v>600</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O86" s="1">
+        <v>150</v>
+      </c>
+      <c r="P86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>550</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>552</v>
+      </c>
+      <c r="B87">
+        <v>58</v>
+      </c>
+      <c r="C87" s="1">
+        <v>28</v>
+      </c>
+      <c r="D87">
+        <v>53</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F87" t="s">
+        <v>551</v>
+      </c>
+      <c r="G87">
+        <v>800</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>30</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0.5</v>
+      </c>
+      <c r="L87">
+        <v>10</v>
+      </c>
+      <c r="M87">
+        <v>800</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O87" s="1">
+        <v>150</v>
+      </c>
+      <c r="P87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>550</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>553</v>
+      </c>
+      <c r="B88">
+        <v>59</v>
+      </c>
+      <c r="C88" s="1">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>53</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F88" t="s">
+        <v>551</v>
+      </c>
+      <c r="G88">
+        <v>600</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>50</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0.5</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="M88">
+        <v>600</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O88" s="1">
+        <v>150</v>
+      </c>
+      <c r="P88" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>550</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>477</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>54</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F89" t="s">
+        <v>473</v>
+      </c>
+      <c r="G89">
+        <v>800</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>165</v>
+      </c>
+      <c r="J89">
+        <v>1.05</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>10</v>
+      </c>
+      <c r="M89">
+        <v>800</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O89" s="1">
+        <v>150</v>
+      </c>
+      <c r="P89" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>472</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>565</v>
+      </c>
+      <c r="B90">
+        <v>73</v>
+      </c>
+      <c r="C90" s="1">
+        <v>36</v>
+      </c>
+      <c r="D90">
+        <v>55</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F90" t="s">
+        <v>567</v>
+      </c>
+      <c r="G90">
+        <v>600</v>
+      </c>
+      <c r="H90">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I90">
+        <v>120</v>
+      </c>
+      <c r="J90">
+        <v>1.05</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>10</v>
+      </c>
+      <c r="M90">
+        <v>600</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O90" s="1">
+        <v>150</v>
+      </c>
+      <c r="P90" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>566</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>577</v>
+      </c>
+      <c r="B91">
+        <v>77</v>
+      </c>
+      <c r="C91" s="1">
+        <v>40</v>
+      </c>
+      <c r="D91">
+        <v>56</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F91" t="s">
+        <v>579</v>
+      </c>
+      <c r="G91">
+        <v>600</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <v>170</v>
+      </c>
+      <c r="J91">
+        <v>1.05</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>600</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O91" s="1">
+        <v>150</v>
+      </c>
+      <c r="P91" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>578</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>590</v>
+      </c>
+      <c r="B92">
+        <v>82</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>57</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F92" t="s">
+        <v>592</v>
+      </c>
+      <c r="G92">
+        <v>600</v>
+      </c>
+      <c r="H92">
+        <v>25</v>
+      </c>
+      <c r="I92">
+        <v>400</v>
+      </c>
+      <c r="J92">
+        <v>1.05</v>
+      </c>
+      <c r="K92">
+        <v>12.5</v>
+      </c>
+      <c r="L92">
+        <v>10</v>
+      </c>
+      <c r="M92">
+        <v>600</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O92" s="1">
+        <v>150</v>
+      </c>
+      <c r="P92" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>591</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>593</v>
+      </c>
+      <c r="B93">
+        <v>83</v>
+      </c>
+      <c r="C93" s="1">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>57</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F93" t="s">
+        <v>592</v>
+      </c>
+      <c r="G93">
+        <v>800</v>
+      </c>
+      <c r="H93">
+        <v>25</v>
+      </c>
+      <c r="I93">
+        <v>400</v>
+      </c>
+      <c r="J93">
+        <v>1.05</v>
+      </c>
+      <c r="K93">
+        <v>12.5</v>
+      </c>
+      <c r="L93">
+        <v>10</v>
+      </c>
+      <c r="M93">
+        <v>800</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O93" s="1">
+        <v>150</v>
+      </c>
+      <c r="P93" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>591</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>615</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+      <c r="C94" s="1">
+        <v>53</v>
+      </c>
+      <c r="D94">
+        <v>58</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F94" t="s">
+        <v>609</v>
+      </c>
+      <c r="G94">
+        <v>600</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94">
+        <v>400</v>
+      </c>
+      <c r="J94">
+        <v>1.05</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+      <c r="L94">
+        <v>10</v>
+      </c>
+      <c r="M94">
+        <v>600</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O94" s="1">
+        <v>150</v>
+      </c>
+      <c r="P94" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>608</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>616</v>
+      </c>
+      <c r="B95">
+        <v>101</v>
+      </c>
+      <c r="C95" s="1">
+        <v>53</v>
+      </c>
+      <c r="D95">
+        <v>58</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F95" t="s">
+        <v>609</v>
+      </c>
+      <c r="G95">
+        <v>800</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95">
+        <v>400</v>
+      </c>
+      <c r="J95">
+        <v>1.05</v>
+      </c>
+      <c r="K95">
+        <v>10</v>
+      </c>
+      <c r="L95">
+        <v>10</v>
+      </c>
+      <c r="M95">
+        <v>800</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O95" s="1">
+        <v>150</v>
+      </c>
+      <c r="P95" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>608</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>483</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>59</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F96" t="s">
+        <v>485</v>
+      </c>
+      <c r="G96">
+        <v>600</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>1.05</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>10</v>
+      </c>
+      <c r="M96">
+        <v>600</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O96" s="1">
+        <v>150</v>
+      </c>
+      <c r="P96" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>484</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>486</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>59</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F97" t="s">
+        <v>485</v>
+      </c>
+      <c r="G97">
+        <v>800</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>1.05</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+      <c r="M97">
+        <v>800</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O97" s="1">
+        <v>150</v>
+      </c>
+      <c r="P97" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>484</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>518</v>
+      </c>
+      <c r="B98">
+        <v>36</v>
+      </c>
+      <c r="C98" s="1">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>60</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F98" t="s">
+        <v>510</v>
+      </c>
+      <c r="G98">
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <v>15</v>
+      </c>
+      <c r="I98">
+        <v>200</v>
+      </c>
+      <c r="J98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K98">
+        <v>7.5</v>
+      </c>
+      <c r="L98">
+        <v>10</v>
+      </c>
+      <c r="M98">
+        <v>1000</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O98" s="1">
+        <v>150</v>
+      </c>
+      <c r="P98" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>509</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>603</v>
+      </c>
+      <c r="B99">
+        <v>90</v>
+      </c>
+      <c r="C99" s="1">
+        <v>48</v>
+      </c>
+      <c r="D99">
+        <v>61</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F99" t="s">
+        <v>596</v>
+      </c>
+      <c r="G99">
+        <v>600</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>300</v>
+      </c>
+      <c r="J99">
+        <v>1.05</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
+        <v>10</v>
+      </c>
+      <c r="M99">
+        <v>600</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O99" s="1">
+        <v>150</v>
+      </c>
+      <c r="P99" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>599</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>604</v>
+      </c>
+      <c r="B100">
+        <v>91</v>
+      </c>
+      <c r="C100" s="1">
+        <v>48</v>
+      </c>
+      <c r="D100">
+        <v>61</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F100" t="s">
+        <v>596</v>
+      </c>
+      <c r="G100">
+        <v>800</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>300</v>
+      </c>
+      <c r="J100">
+        <v>1.05</v>
+      </c>
+      <c r="K100">
+        <v>7</v>
+      </c>
+      <c r="L100">
+        <v>10</v>
+      </c>
+      <c r="M100">
+        <v>800</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O100" s="1">
+        <v>150</v>
+      </c>
+      <c r="P100" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>599</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>621</v>
+      </c>
+      <c r="B101">
+        <v>105</v>
+      </c>
+      <c r="C101" s="1">
+        <v>55</v>
+      </c>
+      <c r="D101">
+        <v>62</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F101" t="s">
+        <v>533</v>
+      </c>
+      <c r="G101">
+        <v>1600</v>
+      </c>
+      <c r="H101">
+        <v>45</v>
+      </c>
+      <c r="I101">
+        <v>330</v>
+      </c>
+      <c r="J101">
+        <v>1.05</v>
+      </c>
+      <c r="K101">
+        <v>15</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="M101">
+        <v>1600</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O101" s="1">
+        <v>150</v>
+      </c>
+      <c r="P101" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>619</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>530</v>
+      </c>
+      <c r="B102">
+        <v>47</v>
+      </c>
+      <c r="C102" s="1">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>63</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F102" t="s">
+        <v>523</v>
+      </c>
+      <c r="G102">
+        <v>600</v>
+      </c>
+      <c r="H102">
+        <v>25</v>
+      </c>
+      <c r="I102">
+        <v>300</v>
+      </c>
+      <c r="J102">
+        <v>0.92</v>
+      </c>
+      <c r="K102">
+        <v>12.5</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>600</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O102" s="1">
+        <v>150</v>
+      </c>
+      <c r="P102" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>509</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>508</v>
+      </c>
+      <c r="B103">
+        <v>28</v>
+      </c>
+      <c r="C103" s="1">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>64</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F103" t="s">
+        <v>510</v>
+      </c>
+      <c r="G103">
+        <v>600</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>120</v>
+      </c>
+      <c r="J103">
+        <v>1.05</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>10</v>
+      </c>
+      <c r="M103">
+        <v>600</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O103" s="1">
+        <v>150</v>
+      </c>
+      <c r="P103" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>509</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>490</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>65</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F104" t="s">
+        <v>485</v>
+      </c>
+      <c r="G104">
+        <v>800</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+      <c r="I104">
+        <v>150</v>
+      </c>
+      <c r="J104">
+        <v>1.05</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+      <c r="L104">
+        <v>10</v>
+      </c>
+      <c r="M104">
+        <v>800</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O104" s="1">
+        <v>150</v>
+      </c>
+      <c r="P104" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>484</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>531</v>
+      </c>
+      <c r="B105">
+        <v>48</v>
+      </c>
+      <c r="C105" s="1">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <v>66</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F105" t="s">
+        <v>533</v>
+      </c>
+      <c r="G105">
+        <v>800</v>
+      </c>
+      <c r="H105">
+        <v>50</v>
+      </c>
+      <c r="I105">
+        <v>600</v>
+      </c>
+      <c r="J105">
+        <v>1.05</v>
+      </c>
+      <c r="K105">
+        <v>25</v>
+      </c>
+      <c r="L105">
+        <v>10</v>
+      </c>
+      <c r="M105">
+        <v>800</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O105" s="1">
+        <v>150</v>
+      </c>
+      <c r="P105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>532</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>554</v>
+      </c>
+      <c r="B106">
+        <v>60</v>
+      </c>
+      <c r="C106" s="1">
+        <v>29</v>
+      </c>
+      <c r="D106">
+        <v>67</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F106" t="s">
+        <v>551</v>
+      </c>
+      <c r="G106">
+        <v>600</v>
+      </c>
+      <c r="H106">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L106">
+        <v>10</v>
+      </c>
+      <c r="M106">
+        <v>600</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O106" s="1">
+        <v>150</v>
+      </c>
+      <c r="P106" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>550</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>554</v>
+      </c>
+      <c r="B107">
+        <v>71</v>
+      </c>
+      <c r="C107" s="1">
+        <v>34</v>
+      </c>
+      <c r="D107">
+        <v>68</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F107" t="s">
+        <v>561</v>
+      </c>
+      <c r="G107">
+        <v>600</v>
+      </c>
+      <c r="H107">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I107">
+        <v>50</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L107">
+        <v>10</v>
+      </c>
+      <c r="M107">
+        <v>600</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O107" s="1">
+        <v>150</v>
+      </c>
+      <c r="P107" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>560</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>501</v>
+      </c>
+      <c r="B108">
+        <v>23</v>
+      </c>
+      <c r="C108" s="1">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>69</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F108" t="s">
+        <v>493</v>
+      </c>
+      <c r="G108">
+        <v>600</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+      <c r="I108">
+        <v>170</v>
+      </c>
+      <c r="J108">
+        <v>1.05</v>
+      </c>
+      <c r="K108">
+        <v>5</v>
+      </c>
+      <c r="L108">
+        <v>10</v>
+      </c>
+      <c r="M108">
+        <v>600</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O108" s="1">
+        <v>150</v>
+      </c>
+      <c r="P108" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>492</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>494</v>
+      </c>
+      <c r="B109">
+        <v>16</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>70</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F109" t="s">
+        <v>493</v>
+      </c>
+      <c r="G109">
+        <v>600</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>120</v>
+      </c>
+      <c r="J109">
+        <v>1.05</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>10</v>
+      </c>
+      <c r="M109">
+        <v>600</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O109" s="1">
+        <v>150</v>
+      </c>
+      <c r="P109" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>492</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>495</v>
+      </c>
+      <c r="B110">
+        <v>17</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>70</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F110" t="s">
+        <v>493</v>
+      </c>
+      <c r="G110">
+        <v>800</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>120</v>
+      </c>
+      <c r="J110">
+        <v>1.05</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>10</v>
+      </c>
+      <c r="M110">
+        <v>800</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O110" s="1">
+        <v>150</v>
+      </c>
+      <c r="P110" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>492</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>478</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>71</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F111" t="s">
+        <v>480</v>
+      </c>
+      <c r="G111">
+        <v>600</v>
+      </c>
+      <c r="H111">
+        <v>1.5</v>
+      </c>
+      <c r="I111">
+        <v>60</v>
+      </c>
+      <c r="J111">
+        <v>1.05</v>
+      </c>
+      <c r="K111">
+        <v>0.75</v>
+      </c>
+      <c r="L111">
+        <v>10</v>
+      </c>
+      <c r="M111">
+        <v>600</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O111" s="1">
+        <v>150</v>
+      </c>
+      <c r="P111" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>479</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>618</v>
+      </c>
+      <c r="B112">
+        <v>103</v>
+      </c>
+      <c r="C112" s="1">
+        <v>54</v>
+      </c>
+      <c r="D112">
+        <v>72</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F112" t="s">
+        <v>533</v>
+      </c>
+      <c r="G112">
+        <v>800</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
+        <v>300</v>
+      </c>
+      <c r="J112">
+        <v>1.05</v>
+      </c>
+      <c r="K112">
+        <v>10</v>
+      </c>
+      <c r="L112">
+        <v>10</v>
+      </c>
+      <c r="M112">
+        <v>800</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O112" s="1">
+        <v>150</v>
+      </c>
+      <c r="P112" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>619</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>519</v>
+      </c>
+      <c r="B113">
+        <v>37</v>
+      </c>
+      <c r="C113" s="1">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <v>73</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F113" t="s">
+        <v>510</v>
+      </c>
+      <c r="G113">
+        <v>600</v>
+      </c>
+      <c r="H113">
+        <v>15</v>
+      </c>
+      <c r="I113">
+        <v>240</v>
+      </c>
+      <c r="J113">
+        <v>1.05</v>
+      </c>
+      <c r="K113">
+        <v>7.5</v>
+      </c>
+      <c r="L113">
+        <v>10</v>
+      </c>
+      <c r="M113">
+        <v>600</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O113" s="1">
+        <v>150</v>
+      </c>
+      <c r="P113" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>509</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>498</v>
+      </c>
+      <c r="B114">
+        <v>20</v>
+      </c>
+      <c r="C114" s="1">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>74</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F114" t="s">
+        <v>493</v>
+      </c>
+      <c r="G114">
+        <v>600</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>150</v>
+      </c>
+      <c r="J114">
+        <v>0.95</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>10</v>
+      </c>
+      <c r="M114">
+        <v>600</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O114" s="1">
+        <v>150</v>
+      </c>
+      <c r="P114" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>492</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>583</v>
+      </c>
+      <c r="B115">
+        <v>79</v>
+      </c>
+      <c r="C115" s="1">
+        <v>42</v>
+      </c>
+      <c r="D115">
+        <v>75</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F115" t="s">
+        <v>585</v>
+      </c>
+      <c r="G115">
+        <v>600</v>
+      </c>
+      <c r="H115">
+        <v>15</v>
+      </c>
+      <c r="I115">
+        <v>200</v>
+      </c>
+      <c r="J115">
+        <v>1.05</v>
+      </c>
+      <c r="K115">
+        <v>7.5</v>
+      </c>
+      <c r="L115">
+        <v>10</v>
+      </c>
+      <c r="M115">
+        <v>600</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O115" s="1">
+        <v>150</v>
+      </c>
+      <c r="P115" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>584</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>491</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>76</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F116" t="s">
+        <v>493</v>
+      </c>
+      <c r="G116">
+        <v>600</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>80</v>
+      </c>
+      <c r="J116">
+        <v>1.05</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <v>600</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O116" s="1">
+        <v>150</v>
+      </c>
+      <c r="P116" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>492</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:R116">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>